--- a/modelCatalog/instances/CAG.xlsx
+++ b/modelCatalog/instances/CAG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deborahkhider/Documents/GitHub/Mint-ModelCatalog-Ontology/modelCatalog/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F5BFCF-20AD-B34E-B735-0509FDF8B1C7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF97FD3-F751-E743-8C0D-208A7F161EC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7180" yWindow="4360" windowWidth="26040" windowHeight="14940" xr2:uid="{1008805C-29D7-F041-A65F-A4D51A9F2636}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>kimetrica_land_use_cfg_simple_CAG</t>
   </si>
   <si>
-    <t>economic_land_quality_cfg_simple_CAG</t>
-  </si>
-  <si>
     <t>topoflow_cfg_simple_CAG</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>CAG for Kimetrica land use simple configuration</t>
   </si>
   <si>
-    <t>CAG for Economic model for land quality with simple configuration</t>
-  </si>
-  <si>
     <t>CAG forTopoFlow with basic configuration</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>precipitation;solarradiation;transpiration;evaporation;runoff;infiltration</t>
+  </si>
+  <si>
+    <t>economic_aggregate_crop_supply_CAG</t>
+  </si>
+  <si>
+    <t>CAG for Economic model for aggregate crop supply response model for the country of South Sudan configuration</t>
   </si>
 </sst>
 </file>
@@ -452,20 +452,24 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -473,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -484,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -495,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -503,55 +507,55 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
